--- a/Jogos_do_Dia/2024-04-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
   <si>
     <t>League</t>
   </si>
@@ -193,6 +193,9 @@
     <t>19:30:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Tallinna Kalev</t>
   </si>
   <si>
@@ -211,33 +214,33 @@
     <t>Colchester United</t>
   </si>
   <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
     <t>Crawley Town</t>
   </si>
   <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Walsall</t>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>Oxford United</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Peterborough United</t>
   </si>
   <si>
     <t>Port Vale</t>
   </si>
   <si>
-    <t>Bolton Wanderers</t>
-  </si>
-  <si>
-    <t>Oxford United</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Peterborough United</t>
-  </si>
-  <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
     <t>Southampton</t>
   </si>
   <si>
@@ -250,13 +253,16 @@
     <t>Belgrano</t>
   </si>
   <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>Defensa y Justicia</t>
+  </si>
+  <si>
     <t>Lanús</t>
   </si>
   <si>
-    <t>Defensa y Justicia</t>
-  </si>
-  <si>
-    <t>Boca Juniors</t>
+    <t>Bahia</t>
   </si>
   <si>
     <t>Tallinna FC Levadia</t>
@@ -277,33 +283,33 @@
     <t>Grimsby Town</t>
   </si>
   <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
-    <t>Accrington Stanley</t>
-  </si>
-  <si>
-    <t>Swindon Town</t>
+    <t>Cambridge United</t>
+  </si>
+  <si>
+    <t>Shrewsbury Town</t>
+  </si>
+  <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
   </si>
   <si>
     <t>Wycombe Wanderers</t>
   </si>
   <si>
-    <t>Shrewsbury Town</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Cambridge United</t>
-  </si>
-  <si>
     <t>Preston North End</t>
   </si>
   <si>
@@ -316,13 +322,16 @@
     <t>Racing Club</t>
   </si>
   <si>
+    <t>Godoy Cruz</t>
+  </si>
+  <si>
+    <t>Newell's Old Boys</t>
+  </si>
+  <si>
     <t>Estudiantes</t>
   </si>
   <si>
-    <t>Newell's Old Boys</t>
-  </si>
-  <si>
-    <t>Godoy Cruz</t>
+    <t>Fluminense</t>
   </si>
 </sst>
 </file>
@@ -684,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ23"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,67 +844,67 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.34</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Z2">
         <v>1.33</v>
@@ -966,10 +975,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3">
         <v>3.2</v>
@@ -981,13 +990,13 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L3">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="M3">
         <v>1.36</v>
@@ -1008,10 +1017,10 @@
         <v>3.75</v>
       </c>
       <c r="S3">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="T3">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="U3">
         <v>1.62</v>
@@ -1097,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4">
         <v>2.01</v>
@@ -1112,13 +1121,13 @@
         <v>5.5</v>
       </c>
       <c r="J4">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="K4">
-        <v>3.94</v>
+        <v>4.05</v>
       </c>
       <c r="L4">
-        <v>4.94</v>
+        <v>5.4</v>
       </c>
       <c r="M4">
         <v>1.32</v>
@@ -1139,10 +1148,10 @@
         <v>3.98</v>
       </c>
       <c r="S4">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="T4">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="U4">
         <v>1.77</v>
@@ -1184,10 +1193,10 @@
         <v>3.49</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ4">
         <v>1.34</v>
@@ -1228,10 +1237,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5">
         <v>3.4</v>
@@ -1243,13 +1252,13 @@
         <v>3.6</v>
       </c>
       <c r="J5">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="K5">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>2.79</v>
+        <v>2.6</v>
       </c>
       <c r="M5">
         <v>1.53</v>
@@ -1359,10 +1368,10 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G6">
         <v>3.2</v>
@@ -1374,13 +1383,13 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K6">
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
       <c r="L6">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="M6">
         <v>1.3</v>
@@ -1401,10 +1410,10 @@
         <v>4.5</v>
       </c>
       <c r="S6">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="T6">
-        <v>2.09</v>
+        <v>2.34</v>
       </c>
       <c r="U6">
         <v>1.57</v>
@@ -1490,10 +1499,10 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7">
         <v>2.88</v>
@@ -1505,13 +1514,13 @@
         <v>3.25</v>
       </c>
       <c r="J7">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="K7">
-        <v>3.39</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>3.01</v>
+        <v>3.25</v>
       </c>
       <c r="M7">
         <v>1.29</v>
@@ -1535,7 +1544,7 @@
         <v>1.8</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U7">
         <v>1.5</v>
@@ -1577,10 +1586,10 @@
         <v>2.32</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ7">
         <v>1.28</v>
@@ -1618,124 +1627,124 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G8">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="H8">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="I8">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J8">
-        <v>2.81</v>
+        <v>1.95</v>
       </c>
       <c r="K8">
-        <v>3.34</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
-        <v>2.43</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="O8">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q8">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="R8">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="S8">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="T8">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="U8">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="V8">
-        <v>2.1</v>
+        <v>2.41</v>
       </c>
       <c r="W8">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="X8">
         <v>1.25</v>
       </c>
       <c r="Y8">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="Z8">
-        <v>1.52</v>
+        <v>1.86</v>
       </c>
       <c r="AA8">
-        <v>1.29</v>
+        <v>0.76</v>
       </c>
       <c r="AB8">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AC8">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AD8">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="AE8">
-        <v>2.05</v>
+        <v>1.59</v>
       </c>
       <c r="AF8">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG8">
-        <v>1.95</v>
+        <v>2.92</v>
       </c>
       <c r="AH8">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AI8">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AJ8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AK8">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AL8">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AM8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AN8">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="AO8">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP8">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AQ8">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1752,10 +1761,10 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G9">
         <v>1.91</v>
@@ -1767,13 +1776,13 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="K9">
-        <v>5.46</v>
+        <v>4.4</v>
       </c>
       <c r="L9">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="M9">
         <v>1.33</v>
@@ -1794,10 +1803,10 @@
         <v>4.2</v>
       </c>
       <c r="S9">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="T9">
-        <v>2.26</v>
+        <v>2.73</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1880,124 +1889,124 @@
         <v>54</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G10">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="H10">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="I10">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J10">
-        <v>1.85</v>
+        <v>2.37</v>
       </c>
       <c r="K10">
-        <v>3.78</v>
+        <v>3.3</v>
       </c>
       <c r="L10">
-        <v>3.77</v>
+        <v>2.6</v>
       </c>
       <c r="M10">
+        <v>1.36</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>1.04</v>
+      </c>
+      <c r="P10">
+        <v>12</v>
+      </c>
+      <c r="Q10">
         <v>1.28</v>
       </c>
-      <c r="N10">
-        <v>3.48</v>
-      </c>
-      <c r="O10">
-        <v>1.02</v>
-      </c>
-      <c r="P10">
-        <v>10</v>
-      </c>
-      <c r="Q10">
-        <v>1.14</v>
-      </c>
       <c r="R10">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="S10">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="T10">
-        <v>2.24</v>
+        <v>1.91</v>
       </c>
       <c r="U10">
+        <v>1.67</v>
+      </c>
+      <c r="V10">
+        <v>2.1</v>
+      </c>
+      <c r="W10">
         <v>1.5</v>
-      </c>
-      <c r="V10">
-        <v>2.41</v>
-      </c>
-      <c r="W10">
-        <v>1.31</v>
       </c>
       <c r="X10">
         <v>1.25</v>
       </c>
       <c r="Y10">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="Z10">
-        <v>1.86</v>
+        <v>1.52</v>
       </c>
       <c r="AA10">
-        <v>0.76</v>
+        <v>1.29</v>
       </c>
       <c r="AB10">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AC10">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AD10">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="AE10">
-        <v>1.59</v>
+        <v>2.05</v>
       </c>
       <c r="AF10">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG10">
-        <v>2.92</v>
+        <v>1.95</v>
       </c>
       <c r="AH10">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AI10">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AJ10">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AK10">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AL10">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AN10">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="AO10">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP10">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2011,124 +2020,124 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G11">
-        <v>3.25</v>
+        <v>2.59</v>
       </c>
       <c r="H11">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="I11">
-        <v>3.5</v>
+        <v>4.47</v>
       </c>
       <c r="J11">
-        <v>2.43</v>
+        <v>2.07</v>
       </c>
       <c r="K11">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L11">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="N11">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="O11">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="P11">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Q11">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>3.63</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T11">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U11">
+        <v>1.75</v>
+      </c>
+      <c r="V11">
         <v>1.95</v>
       </c>
-      <c r="V11">
-        <v>1.8</v>
-      </c>
       <c r="W11">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="X11">
         <v>1.25</v>
       </c>
       <c r="Y11">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AA11">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AB11">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AC11">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AD11">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="AE11">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="AF11">
-        <v>10.2</v>
+        <v>8</v>
       </c>
       <c r="AG11">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AH11">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AI11">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AJ11">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="AK11">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="AL11">
-        <v>1.28</v>
+        <v>1.73</v>
       </c>
       <c r="AM11">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="AN11">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="AO11">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AP11">
-        <v>1.98</v>
+        <v>2.62</v>
       </c>
       <c r="AQ11">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2145,10 +2154,10 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G12">
         <v>1.85</v>
@@ -2160,13 +2169,13 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="K12">
-        <v>4.85</v>
+        <v>4.4</v>
       </c>
       <c r="L12">
-        <v>7.68</v>
+        <v>6.9</v>
       </c>
       <c r="M12">
         <v>1.3</v>
@@ -2232,22 +2241,22 @@
         <v>5.17</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AN12">
         <v>2.05</v>
@@ -2256,10 +2265,10 @@
         <v>1.7</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2276,10 +2285,10 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13">
         <v>2.55</v>
@@ -2291,13 +2300,13 @@
         <v>3.8</v>
       </c>
       <c r="J13">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>3.27</v>
+        <v>3.1</v>
       </c>
       <c r="L13">
-        <v>3.39</v>
+        <v>3.1</v>
       </c>
       <c r="M13">
         <v>1.35</v>
@@ -2318,10 +2327,10 @@
         <v>3.8</v>
       </c>
       <c r="S13">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>1.6</v>
@@ -2363,16 +2372,16 @@
         <v>2.62</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AL13">
         <v>1.8</v>
@@ -2381,16 +2390,16 @@
         <v>1.9</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2407,10 +2416,10 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <v>2.55</v>
@@ -2422,13 +2431,13 @@
         <v>3.8</v>
       </c>
       <c r="J14">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="K14">
-        <v>3.64</v>
+        <v>3.2</v>
       </c>
       <c r="L14">
-        <v>3.94</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
         <v>1.36</v>
@@ -2494,22 +2503,22 @@
         <v>2.91</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AN14">
         <v>1.95</v>
@@ -2518,10 +2527,10 @@
         <v>1.77</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2538,10 +2547,10 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>1.91</v>
@@ -2553,13 +2562,13 @@
         <v>5.5</v>
       </c>
       <c r="J15">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="K15">
-        <v>4.77</v>
+        <v>4.3</v>
       </c>
       <c r="L15">
-        <v>6.46</v>
+        <v>5.6</v>
       </c>
       <c r="M15">
         <v>1.3</v>
@@ -2625,22 +2634,22 @@
         <v>3.84</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AN15">
         <v>1.8</v>
@@ -2649,10 +2658,10 @@
         <v>1.9</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2666,124 +2675,124 @@
         <v>54</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G16">
-        <v>2.59</v>
+        <v>3.25</v>
       </c>
       <c r="H16">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="I16">
-        <v>4.47</v>
+        <v>3.5</v>
       </c>
       <c r="J16">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="K16">
-        <v>3.39</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
       <c r="M16">
+        <v>1.44</v>
+      </c>
+      <c r="N16">
+        <v>2.63</v>
+      </c>
+      <c r="O16">
+        <v>1.06</v>
+      </c>
+      <c r="P16">
+        <v>9.5</v>
+      </c>
+      <c r="Q16">
         <v>1.38</v>
       </c>
-      <c r="N16">
-        <v>2.79</v>
-      </c>
-      <c r="O16">
-        <v>1.03</v>
-      </c>
-      <c r="P16">
-        <v>9</v>
-      </c>
-      <c r="Q16">
-        <v>1.3</v>
-      </c>
       <c r="R16">
-        <v>3.63</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="X16">
         <v>1.25</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="Z16">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AB16">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AC16">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AD16">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AE16">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AF16">
-        <v>8</v>
+        <v>10.2</v>
       </c>
       <c r="AG16">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AL16">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2800,10 +2809,10 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17">
         <v>1.87</v>
@@ -2815,13 +2824,13 @@
         <v>6</v>
       </c>
       <c r="J17">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="K17">
-        <v>5.35</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>7.91</v>
+        <v>7</v>
       </c>
       <c r="M17">
         <v>1.3</v>
@@ -2842,10 +2851,10 @@
         <v>4.5</v>
       </c>
       <c r="S17">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -2931,10 +2940,10 @@
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2946,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.390000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="K18">
-        <v>5.63</v>
+        <v>4.8</v>
       </c>
       <c r="L18">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3062,10 +3071,10 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3193,28 +3202,28 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G20">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H20">
         <v>2.05</v>
       </c>
       <c r="I20">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J20">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M20">
         <v>1.5</v>
@@ -3235,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T20">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -3324,46 +3333,46 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G21">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="H21">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="I21">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="J21">
-        <v>2.45</v>
+        <v>1.62</v>
       </c>
       <c r="K21">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="L21">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="N21">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O21">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="P21">
-        <v>6</v>
+        <v>7.61</v>
       </c>
       <c r="Q21">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R21">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="S21">
         <v>2.4</v>
@@ -3372,73 +3381,73 @@
         <v>1.53</v>
       </c>
       <c r="U21">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V21">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W21">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="X21">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="Y21">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="Z21">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AA21">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="AB21">
-        <v>1.39</v>
+        <v>1.76</v>
       </c>
       <c r="AC21">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="AD21">
-        <v>2.71</v>
+        <v>3.25</v>
       </c>
       <c r="AE21">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="AF21">
-        <v>9.4</v>
+        <v>8.15</v>
       </c>
       <c r="AG21">
-        <v>2.19</v>
+        <v>3.13</v>
       </c>
       <c r="AH21">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="AI21">
-        <v>3.08</v>
+        <v>2.65</v>
       </c>
       <c r="AJ21">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AK21">
+        <v>2</v>
+      </c>
+      <c r="AL21">
         <v>2.25</v>
       </c>
-      <c r="AL21">
-        <v>1.97</v>
-      </c>
       <c r="AM21">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AN21">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="AO21">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AP21">
-        <v>3.38</v>
+        <v>4.03</v>
       </c>
       <c r="AQ21">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3455,28 +3464,28 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H22">
         <v>1.95</v>
       </c>
       <c r="I22">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="J22">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="K22">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M22">
         <v>1.53</v>
@@ -3533,13 +3542,13 @@
         <v>2.8</v>
       </c>
       <c r="AE22">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AF22">
-        <v>8.65</v>
+        <v>7.7</v>
       </c>
       <c r="AG22">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="AH22">
         <v>1.32</v>
@@ -3586,121 +3595,252 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G23">
+        <v>3.4</v>
+      </c>
+      <c r="H23">
+        <v>1.95</v>
+      </c>
+      <c r="I23">
+        <v>3.75</v>
+      </c>
+      <c r="J23">
+        <v>2.55</v>
+      </c>
+      <c r="K23">
+        <v>3.2</v>
+      </c>
+      <c r="L23">
+        <v>2.9</v>
+      </c>
+      <c r="M23">
+        <v>1.53</v>
+      </c>
+      <c r="N23">
         <v>2.38</v>
       </c>
-      <c r="H23">
+      <c r="O23">
+        <v>1.09</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>1.48</v>
+      </c>
+      <c r="R23">
+        <v>2.5</v>
+      </c>
+      <c r="S23">
+        <v>2.5</v>
+      </c>
+      <c r="T23">
+        <v>1.5</v>
+      </c>
+      <c r="U23">
+        <v>2.1</v>
+      </c>
+      <c r="V23">
+        <v>1.67</v>
+      </c>
+      <c r="W23">
+        <v>1.38</v>
+      </c>
+      <c r="X23">
+        <v>1.38</v>
+      </c>
+      <c r="Y23">
+        <v>1.55</v>
+      </c>
+      <c r="Z23">
+        <v>1.33</v>
+      </c>
+      <c r="AA23">
+        <v>1.33</v>
+      </c>
+      <c r="AB23">
+        <v>1.39</v>
+      </c>
+      <c r="AC23">
+        <v>1.32</v>
+      </c>
+      <c r="AD23">
+        <v>2.71</v>
+      </c>
+      <c r="AE23">
+        <v>1.84</v>
+      </c>
+      <c r="AF23">
+        <v>8.25</v>
+      </c>
+      <c r="AG23">
+        <v>2.41</v>
+      </c>
+      <c r="AH23">
+        <v>1.32</v>
+      </c>
+      <c r="AI23">
+        <v>3.08</v>
+      </c>
+      <c r="AJ23">
+        <v>1.57</v>
+      </c>
+      <c r="AK23">
+        <v>2.25</v>
+      </c>
+      <c r="AL23">
+        <v>1.97</v>
+      </c>
+      <c r="AM23">
+        <v>1.78</v>
+      </c>
+      <c r="AN23">
+        <v>2.5</v>
+      </c>
+      <c r="AO23">
+        <v>1.48</v>
+      </c>
+      <c r="AP23">
+        <v>3.38</v>
+      </c>
+      <c r="AQ23">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45398</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24">
+        <v>3.1</v>
+      </c>
+      <c r="H24">
+        <v>2.1</v>
+      </c>
+      <c r="I24">
+        <v>3.6</v>
+      </c>
+      <c r="J24">
+        <v>3.57</v>
+      </c>
+      <c r="K24">
+        <v>4.36</v>
+      </c>
+      <c r="L24">
+        <v>1.67</v>
+      </c>
+      <c r="M24">
+        <v>1.42</v>
+      </c>
+      <c r="N24">
+        <v>2.65</v>
+      </c>
+      <c r="O24">
+        <v>1.05</v>
+      </c>
+      <c r="P24">
+        <v>9.9</v>
+      </c>
+      <c r="Q24">
+        <v>1.34</v>
+      </c>
+      <c r="R24">
+        <v>3.44</v>
+      </c>
+      <c r="S24">
         <v>2.05</v>
       </c>
-      <c r="I23">
-        <v>6</v>
-      </c>
-      <c r="J23">
-        <v>1.67</v>
-      </c>
-      <c r="K23">
-        <v>3.8</v>
-      </c>
-      <c r="L23">
-        <v>5</v>
-      </c>
-      <c r="M23">
+      <c r="T24">
+        <v>1.63</v>
+      </c>
+      <c r="U24">
+        <v>1.8</v>
+      </c>
+      <c r="V24">
+        <v>1.95</v>
+      </c>
+      <c r="W24">
+        <v>1.3</v>
+      </c>
+      <c r="X24">
+        <v>1.35</v>
+      </c>
+      <c r="Y24">
+        <v>1.7</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1.62</v>
+      </c>
+      <c r="AF24">
+        <v>8.1</v>
+      </c>
+      <c r="AG24">
+        <v>2.86</v>
+      </c>
+      <c r="AH24">
+        <v>1.17</v>
+      </c>
+      <c r="AI24">
+        <v>4.4</v>
+      </c>
+      <c r="AJ24">
+        <v>1.34</v>
+      </c>
+      <c r="AK24">
+        <v>3</v>
+      </c>
+      <c r="AL24">
+        <v>2.25</v>
+      </c>
+      <c r="AM24">
+        <v>2.25</v>
+      </c>
+      <c r="AN24">
+        <v>1.95</v>
+      </c>
+      <c r="AO24">
+        <v>1.77</v>
+      </c>
+      <c r="AP24">
+        <v>2.4</v>
+      </c>
+      <c r="AQ24">
         <v>1.5</v>
-      </c>
-      <c r="N23">
-        <v>2.5</v>
-      </c>
-      <c r="O23">
-        <v>1.07</v>
-      </c>
-      <c r="P23">
-        <v>7.61</v>
-      </c>
-      <c r="Q23">
-        <v>1.46</v>
-      </c>
-      <c r="R23">
-        <v>2.65</v>
-      </c>
-      <c r="S23">
-        <v>2.35</v>
-      </c>
-      <c r="T23">
-        <v>1.57</v>
-      </c>
-      <c r="U23">
-        <v>2.38</v>
-      </c>
-      <c r="V23">
-        <v>1.53</v>
-      </c>
-      <c r="W23">
-        <v>1.22</v>
-      </c>
-      <c r="X23">
-        <v>1.28</v>
-      </c>
-      <c r="Y23">
-        <v>1.92</v>
-      </c>
-      <c r="Z23">
-        <v>2.33</v>
-      </c>
-      <c r="AA23">
-        <v>2.5</v>
-      </c>
-      <c r="AB23">
-        <v>1.76</v>
-      </c>
-      <c r="AC23">
-        <v>1.49</v>
-      </c>
-      <c r="AD23">
-        <v>3.25</v>
-      </c>
-      <c r="AE23">
-        <v>1.64</v>
-      </c>
-      <c r="AF23">
-        <v>8.4</v>
-      </c>
-      <c r="AG23">
-        <v>2.83</v>
-      </c>
-      <c r="AH23">
-        <v>1.44</v>
-      </c>
-      <c r="AI23">
-        <v>2.65</v>
-      </c>
-      <c r="AJ23">
-        <v>1.75</v>
-      </c>
-      <c r="AK23">
-        <v>2</v>
-      </c>
-      <c r="AL23">
-        <v>2.25</v>
-      </c>
-      <c r="AM23">
-        <v>1.6</v>
-      </c>
-      <c r="AN23">
-        <v>2.95</v>
-      </c>
-      <c r="AO23">
-        <v>1.36</v>
-      </c>
-      <c r="AP23">
-        <v>4.03</v>
-      </c>
-      <c r="AQ23">
-        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-04-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>League</t>
   </si>
@@ -166,6 +166,9 @@
     <t>Portugal Liga NOS</t>
   </si>
   <si>
+    <t>Uruguay Primera División</t>
+  </si>
+  <si>
     <t>Brazil Serie A</t>
   </si>
   <si>
@@ -187,12 +190,18 @@
     <t>16:15:00</t>
   </si>
   <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
     <t>19:00:00</t>
   </si>
   <si>
     <t>19:30:00</t>
   </si>
   <si>
+    <t>20:30:00</t>
+  </si>
+  <si>
     <t>21:30:00</t>
   </si>
   <si>
@@ -211,57 +220,63 @@
     <t>Notts County</t>
   </si>
   <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
     <t>Colchester United</t>
   </si>
   <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>Oxford United</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Peterborough United</t>
   </si>
   <si>
     <t>Bristol Rovers</t>
   </si>
   <si>
-    <t>Bolton Wanderers</t>
-  </si>
-  <si>
-    <t>Oxford United</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Peterborough United</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
     <t>Southampton</t>
   </si>
   <si>
     <t>Famalicão</t>
   </si>
   <si>
+    <t>Wanderers</t>
+  </si>
+  <si>
     <t>Cuiabá</t>
   </si>
   <si>
+    <t>Defensa y Justicia</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
     <t>Belgrano</t>
   </si>
   <si>
-    <t>Boca Juniors</t>
-  </si>
-  <si>
-    <t>Defensa y Justicia</t>
-  </si>
-  <si>
     <t>Lanús</t>
   </si>
   <si>
+    <t>Miramar Misiones</t>
+  </si>
+  <si>
     <t>Bahia</t>
   </si>
   <si>
@@ -280,55 +295,61 @@
     <t>Stockport County</t>
   </si>
   <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
     <t>Grimsby Town</t>
   </si>
   <si>
-    <t>Swindon Town</t>
-  </si>
-  <si>
-    <t>Accrington Stanley</t>
-  </si>
-  <si>
-    <t>Barrow</t>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t>Shrewsbury Town</t>
+  </si>
+  <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
   </si>
   <si>
     <t>Cambridge United</t>
   </si>
   <si>
-    <t>Shrewsbury Town</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
     <t>Preston North End</t>
   </si>
   <si>
     <t>Sporting CP</t>
   </si>
   <si>
+    <t>Liverpool FC Montevideo</t>
+  </si>
+  <si>
     <t>Vitória</t>
   </si>
   <si>
+    <t>Newell's Old Boys</t>
+  </si>
+  <si>
+    <t>Godoy Cruz</t>
+  </si>
+  <si>
     <t>Racing Club</t>
   </si>
   <si>
-    <t>Godoy Cruz</t>
-  </si>
-  <si>
-    <t>Newell's Old Boys</t>
-  </si>
-  <si>
     <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>Nacional</t>
   </si>
   <si>
     <t>Fluminense</t>
@@ -693,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ24"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -838,16 +859,16 @@
         <v>45398</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G2">
         <v>7.5</v>
@@ -859,13 +880,13 @@
         <v>1.79</v>
       </c>
       <c r="J2">
-        <v>6.34</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>4.32</v>
+        <v>5.5</v>
       </c>
       <c r="L2">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="M2">
         <v>1.25</v>
@@ -886,10 +907,10 @@
         <v>4.48</v>
       </c>
       <c r="S2">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T2">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="U2">
         <v>1.73</v>
@@ -907,7 +928,7 @@
         <v>1.04</v>
       </c>
       <c r="Z2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>3</v>
@@ -969,16 +990,16 @@
         <v>45398</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G3">
         <v>3.2</v>
@@ -993,10 +1014,10 @@
         <v>2.58</v>
       </c>
       <c r="K3">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="M3">
         <v>1.36</v>
@@ -1017,10 +1038,10 @@
         <v>3.75</v>
       </c>
       <c r="S3">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="T3">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <v>1.62</v>
@@ -1100,16 +1121,16 @@
         <v>45398</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G4">
         <v>2.01</v>
@@ -1121,10 +1142,10 @@
         <v>5.5</v>
       </c>
       <c r="J4">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="K4">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="L4">
         <v>5.4</v>
@@ -1148,10 +1169,10 @@
         <v>3.98</v>
       </c>
       <c r="S4">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="T4">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="U4">
         <v>1.77</v>
@@ -1231,16 +1252,16 @@
         <v>45398</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G5">
         <v>3.4</v>
@@ -1252,13 +1273,13 @@
         <v>3.6</v>
       </c>
       <c r="J5">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L5">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M5">
         <v>1.53</v>
@@ -1279,10 +1300,10 @@
         <v>2.8</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="T5">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="U5">
         <v>2.05</v>
@@ -1362,16 +1383,16 @@
         <v>45398</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G6">
         <v>3.2</v>
@@ -1383,13 +1404,13 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K6">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L6">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="M6">
         <v>1.3</v>
@@ -1410,10 +1431,10 @@
         <v>4.5</v>
       </c>
       <c r="S6">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="T6">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="U6">
         <v>1.57</v>
@@ -1493,127 +1514,127 @@
         <v>45398</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G7">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H7">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I7">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J7">
+        <v>2.43</v>
+      </c>
+      <c r="K7">
+        <v>3.3</v>
+      </c>
+      <c r="L7">
+        <v>2.46</v>
+      </c>
+      <c r="M7">
+        <v>1.36</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>1.04</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>1.28</v>
+      </c>
+      <c r="R7">
+        <v>3.6</v>
+      </c>
+      <c r="S7">
+        <v>1.86</v>
+      </c>
+      <c r="T7">
+        <v>1.86</v>
+      </c>
+      <c r="U7">
+        <v>1.67</v>
+      </c>
+      <c r="V7">
         <v>2.1</v>
       </c>
-      <c r="K7">
+      <c r="W7">
+        <v>1.5</v>
+      </c>
+      <c r="X7">
+        <v>1.25</v>
+      </c>
+      <c r="Y7">
+        <v>1.52</v>
+      </c>
+      <c r="Z7">
+        <v>1.52</v>
+      </c>
+      <c r="AA7">
+        <v>1.29</v>
+      </c>
+      <c r="AB7">
+        <v>1.54</v>
+      </c>
+      <c r="AC7">
+        <v>1.33</v>
+      </c>
+      <c r="AD7">
+        <v>2.87</v>
+      </c>
+      <c r="AE7">
+        <v>2.05</v>
+      </c>
+      <c r="AF7">
+        <v>8</v>
+      </c>
+      <c r="AG7">
+        <v>1.95</v>
+      </c>
+      <c r="AH7">
+        <v>1.25</v>
+      </c>
+      <c r="AI7">
         <v>3.6</v>
       </c>
-      <c r="L7">
-        <v>3.25</v>
-      </c>
-      <c r="M7">
-        <v>1.29</v>
-      </c>
-      <c r="N7">
-        <v>3.5</v>
-      </c>
-      <c r="O7">
-        <v>1.02</v>
-      </c>
-      <c r="P7">
-        <v>13</v>
-      </c>
-      <c r="Q7">
-        <v>1.17</v>
-      </c>
-      <c r="R7">
-        <v>4.5</v>
-      </c>
-      <c r="S7">
-        <v>1.8</v>
-      </c>
-      <c r="T7">
-        <v>1.91</v>
-      </c>
-      <c r="U7">
+      <c r="AJ7">
         <v>1.5</v>
       </c>
-      <c r="V7">
-        <v>2.5</v>
-      </c>
-      <c r="W7">
-        <v>1.41</v>
-      </c>
-      <c r="X7">
-        <v>1.26</v>
-      </c>
-      <c r="Y7">
-        <v>1.6</v>
-      </c>
-      <c r="Z7">
-        <v>1.05</v>
-      </c>
-      <c r="AA7">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AB7">
-        <v>1.47</v>
-      </c>
-      <c r="AC7">
-        <v>1.32</v>
-      </c>
-      <c r="AD7">
-        <v>2.79</v>
-      </c>
-      <c r="AE7">
-        <v>1.82</v>
-      </c>
-      <c r="AF7">
-        <v>8.5</v>
-      </c>
-      <c r="AG7">
-        <v>2.32</v>
-      </c>
-      <c r="AH7">
-        <v>1.13</v>
-      </c>
-      <c r="AI7">
-        <v>5</v>
-      </c>
-      <c r="AJ7">
-        <v>1.28</v>
-      </c>
       <c r="AK7">
+        <v>2.4</v>
+      </c>
+      <c r="AL7">
+        <v>1.85</v>
+      </c>
+      <c r="AM7">
+        <v>1.95</v>
+      </c>
+      <c r="AN7">
+        <v>2.4</v>
+      </c>
+      <c r="AO7">
+        <v>1.5</v>
+      </c>
+      <c r="AP7">
         <v>3.2</v>
       </c>
-      <c r="AL7">
-        <v>1.51</v>
-      </c>
-      <c r="AM7">
-        <v>2.32</v>
-      </c>
-      <c r="AN7">
-        <v>1.87</v>
-      </c>
-      <c r="AO7">
-        <v>1.83</v>
-      </c>
-      <c r="AP7">
-        <v>2.38</v>
-      </c>
       <c r="AQ7">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1624,16 +1645,16 @@
         <v>45398</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G8">
         <v>2.45</v>
@@ -1645,13 +1666,13 @@
         <v>3.7</v>
       </c>
       <c r="J8">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
         <v>1.28</v>
@@ -1672,10 +1693,10 @@
         <v>4.6</v>
       </c>
       <c r="S8">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="T8">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="U8">
         <v>1.5</v>
@@ -1755,16 +1776,16 @@
         <v>45398</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G9">
         <v>1.91</v>
@@ -1776,13 +1797,13 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="K9">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="M9">
         <v>1.33</v>
@@ -1803,10 +1824,10 @@
         <v>4.2</v>
       </c>
       <c r="S9">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T9">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1886,127 +1907,127 @@
         <v>45398</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G10">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H10">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="I10">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J10">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="K10">
         <v>3.3</v>
       </c>
       <c r="L10">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="M10">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O10">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q10">
+        <v>1.17</v>
+      </c>
+      <c r="R10">
+        <v>4.5</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>1.5</v>
+      </c>
+      <c r="V10">
+        <v>2.5</v>
+      </c>
+      <c r="W10">
+        <v>1.41</v>
+      </c>
+      <c r="X10">
+        <v>1.26</v>
+      </c>
+      <c r="Y10">
+        <v>1.6</v>
+      </c>
+      <c r="Z10">
+        <v>1.05</v>
+      </c>
+      <c r="AA10">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AB10">
+        <v>1.47</v>
+      </c>
+      <c r="AC10">
+        <v>1.32</v>
+      </c>
+      <c r="AD10">
+        <v>2.79</v>
+      </c>
+      <c r="AE10">
+        <v>1.82</v>
+      </c>
+      <c r="AF10">
+        <v>8.5</v>
+      </c>
+      <c r="AG10">
+        <v>2.32</v>
+      </c>
+      <c r="AH10">
+        <v>1.13</v>
+      </c>
+      <c r="AI10">
+        <v>5</v>
+      </c>
+      <c r="AJ10">
         <v>1.28</v>
       </c>
-      <c r="R10">
-        <v>3.6</v>
-      </c>
-      <c r="S10">
+      <c r="AK10">
+        <v>3.2</v>
+      </c>
+      <c r="AL10">
+        <v>1.51</v>
+      </c>
+      <c r="AM10">
+        <v>2.32</v>
+      </c>
+      <c r="AN10">
+        <v>1.87</v>
+      </c>
+      <c r="AO10">
         <v>1.83</v>
       </c>
-      <c r="T10">
-        <v>1.91</v>
-      </c>
-      <c r="U10">
-        <v>1.67</v>
-      </c>
-      <c r="V10">
-        <v>2.1</v>
-      </c>
-      <c r="W10">
-        <v>1.5</v>
-      </c>
-      <c r="X10">
-        <v>1.25</v>
-      </c>
-      <c r="Y10">
-        <v>1.52</v>
-      </c>
-      <c r="Z10">
-        <v>1.52</v>
-      </c>
-      <c r="AA10">
-        <v>1.29</v>
-      </c>
-      <c r="AB10">
-        <v>1.54</v>
-      </c>
-      <c r="AC10">
-        <v>1.33</v>
-      </c>
-      <c r="AD10">
-        <v>2.87</v>
-      </c>
-      <c r="AE10">
-        <v>2.05</v>
-      </c>
-      <c r="AF10">
-        <v>8</v>
-      </c>
-      <c r="AG10">
-        <v>1.95</v>
-      </c>
-      <c r="AH10">
-        <v>1.25</v>
-      </c>
-      <c r="AI10">
-        <v>3.6</v>
-      </c>
-      <c r="AJ10">
-        <v>1.5</v>
-      </c>
-      <c r="AK10">
-        <v>2.4</v>
-      </c>
-      <c r="AL10">
-        <v>1.85</v>
-      </c>
-      <c r="AM10">
-        <v>1.95</v>
-      </c>
-      <c r="AN10">
-        <v>2.4</v>
-      </c>
-      <c r="AO10">
-        <v>1.5</v>
-      </c>
       <c r="AP10">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="AQ10">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2017,127 +2038,127 @@
         <v>45398</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G11">
-        <v>2.59</v>
+        <v>3.25</v>
       </c>
       <c r="H11">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="I11">
-        <v>4.47</v>
+        <v>3.5</v>
       </c>
       <c r="J11">
-        <v>2.07</v>
+        <v>2.34</v>
       </c>
       <c r="K11">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
+        <v>2.6</v>
+      </c>
+      <c r="M11">
+        <v>1.44</v>
+      </c>
+      <c r="N11">
+        <v>2.63</v>
+      </c>
+      <c r="O11">
+        <v>1.06</v>
+      </c>
+      <c r="P11">
+        <v>9.5</v>
+      </c>
+      <c r="Q11">
+        <v>1.38</v>
+      </c>
+      <c r="R11">
         <v>3</v>
       </c>
-      <c r="M11">
-        <v>1.38</v>
-      </c>
-      <c r="N11">
-        <v>2.79</v>
-      </c>
-      <c r="O11">
-        <v>1.03</v>
-      </c>
-      <c r="P11">
-        <v>9</v>
-      </c>
-      <c r="Q11">
-        <v>1.3</v>
-      </c>
-      <c r="R11">
-        <v>3.63</v>
-      </c>
       <c r="S11">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T11">
+        <v>1.72</v>
+      </c>
+      <c r="U11">
+        <v>1.95</v>
+      </c>
+      <c r="V11">
         <v>1.8</v>
       </c>
-      <c r="U11">
-        <v>1.75</v>
-      </c>
-      <c r="V11">
-        <v>1.95</v>
-      </c>
       <c r="W11">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="X11">
         <v>1.25</v>
       </c>
       <c r="Y11">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="Z11">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="AB11">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AC11">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AD11">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AE11">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AF11">
-        <v>8</v>
+        <v>10.2</v>
       </c>
       <c r="AG11">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AH11">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AI11">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AJ11">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="AK11">
-        <v>2.62</v>
+        <v>3.9</v>
       </c>
       <c r="AL11">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="AM11">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="AN11">
-        <v>2.11</v>
+        <v>1.5</v>
       </c>
       <c r="AO11">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="AP11">
-        <v>2.62</v>
+        <v>1.98</v>
       </c>
       <c r="AQ11">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2148,16 +2169,16 @@
         <v>45398</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G12">
         <v>1.85</v>
@@ -2169,13 +2190,13 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="K12">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L12">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="M12">
         <v>1.3</v>
@@ -2196,10 +2217,10 @@
         <v>4.2</v>
       </c>
       <c r="S12">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="T12">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="U12">
         <v>1.83</v>
@@ -2279,16 +2300,16 @@
         <v>45398</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G13">
         <v>2.55</v>
@@ -2300,13 +2321,13 @@
         <v>3.8</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="K13">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
         <v>1.35</v>
@@ -2327,10 +2348,10 @@
         <v>3.8</v>
       </c>
       <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
         <v>1.73</v>
-      </c>
-      <c r="T13">
-        <v>2</v>
       </c>
       <c r="U13">
         <v>1.6</v>
@@ -2410,16 +2431,16 @@
         <v>45398</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G14">
         <v>2.55</v>
@@ -2431,10 +2452,10 @@
         <v>3.8</v>
       </c>
       <c r="J14">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="K14">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L14">
         <v>3.6</v>
@@ -2458,10 +2479,10 @@
         <v>3.65</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="T14">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="U14">
         <v>1.67</v>
@@ -2541,16 +2562,16 @@
         <v>45398</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G15">
         <v>1.91</v>
@@ -2562,13 +2583,13 @@
         <v>5.5</v>
       </c>
       <c r="J15">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="K15">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="L15">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M15">
         <v>1.3</v>
@@ -2589,10 +2610,10 @@
         <v>4.33</v>
       </c>
       <c r="S15">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="T15">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="U15">
         <v>1.83</v>
@@ -2672,127 +2693,127 @@
         <v>45398</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G16">
-        <v>3.25</v>
+        <v>2.59</v>
       </c>
       <c r="H16">
+        <v>2.27</v>
+      </c>
+      <c r="I16">
+        <v>4.47</v>
+      </c>
+      <c r="J16">
         <v>2.05</v>
       </c>
-      <c r="I16">
-        <v>3.5</v>
-      </c>
-      <c r="J16">
-        <v>2.33</v>
-      </c>
       <c r="K16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L16">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="M16">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="N16">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="O16">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="P16">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Q16">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>3.63</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="U16">
+        <v>1.75</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="V16">
-        <v>1.8</v>
-      </c>
       <c r="W16">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="X16">
         <v>1.25</v>
       </c>
       <c r="Y16">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AA16">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="AB16">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AC16">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AD16">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="AE16">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="AF16">
-        <v>10.2</v>
+        <v>8</v>
       </c>
       <c r="AG16">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AH16">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AI16">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AJ16">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="AK16">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="AL16">
-        <v>1.28</v>
+        <v>1.73</v>
       </c>
       <c r="AM16">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="AO16">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AP16">
-        <v>1.98</v>
+        <v>2.62</v>
       </c>
       <c r="AQ16">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2803,16 +2824,16 @@
         <v>45398</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G17">
         <v>1.87</v>
@@ -2824,13 +2845,13 @@
         <v>6</v>
       </c>
       <c r="J17">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M17">
         <v>1.3</v>
@@ -2851,10 +2872,10 @@
         <v>4.5</v>
       </c>
       <c r="S17">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="T17">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -2934,16 +2955,16 @@
         <v>45398</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2955,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="K18">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>1.31</v>
@@ -2982,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -3065,127 +3086,127 @@
         <v>45398</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3196,40 +3217,40 @@
         <v>45398</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G20">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3244,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -3265,19 +3286,19 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3321,525 +3342,787 @@
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2">
         <v>45398</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G21">
+        <v>3.25</v>
+      </c>
+      <c r="H21">
+        <v>1.95</v>
+      </c>
+      <c r="I21">
+        <v>3.75</v>
+      </c>
+      <c r="J21">
+        <v>2.4</v>
+      </c>
+      <c r="K21">
+        <v>3.25</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>1.53</v>
+      </c>
+      <c r="N21">
         <v>2.38</v>
       </c>
-      <c r="H21">
-        <v>2.05</v>
-      </c>
-      <c r="I21">
+      <c r="O21">
+        <v>1.09</v>
+      </c>
+      <c r="P21">
         <v>6</v>
       </c>
-      <c r="J21">
-        <v>1.62</v>
-      </c>
-      <c r="K21">
-        <v>3.8</v>
-      </c>
-      <c r="L21">
-        <v>6</v>
-      </c>
-      <c r="M21">
-        <v>1.5</v>
-      </c>
-      <c r="N21">
+      <c r="Q21">
+        <v>1.48</v>
+      </c>
+      <c r="R21">
         <v>2.5</v>
       </c>
-      <c r="O21">
-        <v>1.07</v>
-      </c>
-      <c r="P21">
-        <v>7.61</v>
-      </c>
-      <c r="Q21">
-        <v>1.46</v>
-      </c>
-      <c r="R21">
-        <v>2.65</v>
-      </c>
       <c r="S21">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T21">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>1.73</v>
+      </c>
+      <c r="W21">
+        <v>1.35</v>
+      </c>
+      <c r="X21">
+        <v>1.35</v>
+      </c>
+      <c r="Y21">
+        <v>1.6</v>
+      </c>
+      <c r="Z21">
+        <v>1.83</v>
+      </c>
+      <c r="AA21">
+        <v>2.17</v>
+      </c>
+      <c r="AB21">
+        <v>1.58</v>
+      </c>
+      <c r="AC21">
+        <v>1.22</v>
+      </c>
+      <c r="AD21">
+        <v>2.8</v>
+      </c>
+      <c r="AE21">
+        <v>1.98</v>
+      </c>
+      <c r="AF21">
+        <v>7.7</v>
+      </c>
+      <c r="AG21">
+        <v>2.24</v>
+      </c>
+      <c r="AH21">
+        <v>1.32</v>
+      </c>
+      <c r="AI21">
+        <v>3.08</v>
+      </c>
+      <c r="AJ21">
+        <v>1.57</v>
+      </c>
+      <c r="AK21">
         <v>2.25</v>
       </c>
-      <c r="V21">
-        <v>1.57</v>
-      </c>
-      <c r="W21">
-        <v>1.22</v>
-      </c>
-      <c r="X21">
-        <v>1.28</v>
-      </c>
-      <c r="Y21">
-        <v>1.92</v>
-      </c>
-      <c r="Z21">
-        <v>2.33</v>
-      </c>
-      <c r="AA21">
+      <c r="AL21">
+        <v>1.97</v>
+      </c>
+      <c r="AM21">
+        <v>1.78</v>
+      </c>
+      <c r="AN21">
         <v>2.5</v>
       </c>
-      <c r="AB21">
-        <v>1.76</v>
-      </c>
-      <c r="AC21">
-        <v>1.49</v>
-      </c>
-      <c r="AD21">
-        <v>3.25</v>
-      </c>
-      <c r="AE21">
-        <v>1.56</v>
-      </c>
-      <c r="AF21">
-        <v>8.15</v>
-      </c>
-      <c r="AG21">
-        <v>3.13</v>
-      </c>
-      <c r="AH21">
-        <v>1.44</v>
-      </c>
-      <c r="AI21">
-        <v>2.65</v>
-      </c>
-      <c r="AJ21">
-        <v>1.75</v>
-      </c>
-      <c r="AK21">
-        <v>2</v>
-      </c>
-      <c r="AL21">
-        <v>2.25</v>
-      </c>
-      <c r="AM21">
-        <v>1.6</v>
-      </c>
-      <c r="AN21">
-        <v>2.95</v>
-      </c>
       <c r="AO21">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AP21">
-        <v>4.03</v>
+        <v>3.38</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2">
         <v>45398</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G22">
+        <v>2.25</v>
+      </c>
+      <c r="H22">
+        <v>2.05</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>1.57</v>
+      </c>
+      <c r="K22">
+        <v>3.8</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>1.5</v>
+      </c>
+      <c r="N22">
+        <v>2.5</v>
+      </c>
+      <c r="O22">
+        <v>1.07</v>
+      </c>
+      <c r="P22">
+        <v>7.61</v>
+      </c>
+      <c r="Q22">
+        <v>1.46</v>
+      </c>
+      <c r="R22">
+        <v>2.65</v>
+      </c>
+      <c r="S22">
+        <v>2.35</v>
+      </c>
+      <c r="T22">
+        <v>1.57</v>
+      </c>
+      <c r="U22">
+        <v>2.5</v>
+      </c>
+      <c r="V22">
+        <v>1.5</v>
+      </c>
+      <c r="W22">
+        <v>1.22</v>
+      </c>
+      <c r="X22">
+        <v>1.28</v>
+      </c>
+      <c r="Y22">
+        <v>1.92</v>
+      </c>
+      <c r="Z22">
+        <v>2.33</v>
+      </c>
+      <c r="AA22">
+        <v>2.5</v>
+      </c>
+      <c r="AB22">
+        <v>1.76</v>
+      </c>
+      <c r="AC22">
+        <v>1.49</v>
+      </c>
+      <c r="AD22">
         <v>3.25</v>
       </c>
-      <c r="H22">
-        <v>1.95</v>
-      </c>
-      <c r="I22">
-        <v>3.75</v>
-      </c>
-      <c r="J22">
-        <v>2.45</v>
-      </c>
-      <c r="K22">
-        <v>3.3</v>
-      </c>
-      <c r="L22">
-        <v>2.9</v>
-      </c>
-      <c r="M22">
-        <v>1.53</v>
-      </c>
-      <c r="N22">
-        <v>2.38</v>
-      </c>
-      <c r="O22">
-        <v>1.09</v>
-      </c>
-      <c r="P22">
-        <v>6</v>
-      </c>
-      <c r="Q22">
-        <v>1.48</v>
-      </c>
-      <c r="R22">
-        <v>2.5</v>
-      </c>
-      <c r="S22">
-        <v>2.4</v>
-      </c>
-      <c r="T22">
-        <v>1.53</v>
-      </c>
-      <c r="U22">
-        <v>2.1</v>
-      </c>
-      <c r="V22">
-        <v>1.67</v>
-      </c>
-      <c r="W22">
-        <v>1.35</v>
-      </c>
-      <c r="X22">
-        <v>1.35</v>
-      </c>
-      <c r="Y22">
+      <c r="AE22">
+        <v>1.56</v>
+      </c>
+      <c r="AF22">
+        <v>8.15</v>
+      </c>
+      <c r="AG22">
+        <v>3.13</v>
+      </c>
+      <c r="AH22">
+        <v>1.44</v>
+      </c>
+      <c r="AI22">
+        <v>2.65</v>
+      </c>
+      <c r="AJ22">
+        <v>1.75</v>
+      </c>
+      <c r="AK22">
+        <v>2</v>
+      </c>
+      <c r="AL22">
+        <v>2.25</v>
+      </c>
+      <c r="AM22">
         <v>1.6</v>
       </c>
-      <c r="Z22">
-        <v>1.83</v>
-      </c>
-      <c r="AA22">
-        <v>2.17</v>
-      </c>
-      <c r="AB22">
-        <v>1.58</v>
-      </c>
-      <c r="AC22">
-        <v>1.22</v>
-      </c>
-      <c r="AD22">
-        <v>2.8</v>
-      </c>
-      <c r="AE22">
-        <v>1.98</v>
-      </c>
-      <c r="AF22">
-        <v>7.7</v>
-      </c>
-      <c r="AG22">
-        <v>2.24</v>
-      </c>
-      <c r="AH22">
-        <v>1.32</v>
-      </c>
-      <c r="AI22">
-        <v>3.08</v>
-      </c>
-      <c r="AJ22">
-        <v>1.57</v>
-      </c>
-      <c r="AK22">
-        <v>2.25</v>
-      </c>
-      <c r="AL22">
-        <v>1.97</v>
-      </c>
-      <c r="AM22">
-        <v>1.78</v>
-      </c>
       <c r="AN22">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="AO22">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AP22">
-        <v>3.38</v>
+        <v>4.03</v>
       </c>
       <c r="AQ22">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2">
         <v>45398</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G23">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="H23">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="I23">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="J23">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L23">
-        <v>2.9</v>
+        <v>1.91</v>
       </c>
       <c r="M23">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="N23">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O23">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>2.2</v>
+      </c>
+      <c r="T23">
+        <v>1.65</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>1.73</v>
+      </c>
+      <c r="W23">
+        <v>1.9</v>
+      </c>
+      <c r="X23">
+        <v>1.32</v>
+      </c>
+      <c r="Y23">
+        <v>1.26</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1.83</v>
+      </c>
+      <c r="AB23">
         <v>1.48</v>
       </c>
-      <c r="R23">
-        <v>2.5</v>
-      </c>
-      <c r="S23">
-        <v>2.5</v>
-      </c>
-      <c r="T23">
-        <v>1.5</v>
-      </c>
-      <c r="U23">
-        <v>2.1</v>
-      </c>
-      <c r="V23">
-        <v>1.67</v>
-      </c>
-      <c r="W23">
-        <v>1.38</v>
-      </c>
-      <c r="X23">
-        <v>1.38</v>
-      </c>
-      <c r="Y23">
-        <v>1.55</v>
-      </c>
-      <c r="Z23">
-        <v>1.33</v>
-      </c>
-      <c r="AA23">
-        <v>1.33</v>
-      </c>
-      <c r="AB23">
-        <v>1.39</v>
-      </c>
       <c r="AC23">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AD23">
-        <v>2.71</v>
+        <v>2.89</v>
       </c>
       <c r="AE23">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AK23">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AL23">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AM23">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AN23">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2">
         <v>45398</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24">
+        <v>3.4</v>
+      </c>
+      <c r="H24">
+        <v>1.95</v>
+      </c>
+      <c r="I24">
+        <v>3.75</v>
+      </c>
+      <c r="J24">
+        <v>2.55</v>
+      </c>
+      <c r="K24">
+        <v>3.2</v>
+      </c>
+      <c r="L24">
+        <v>2.9</v>
+      </c>
+      <c r="M24">
+        <v>1.53</v>
+      </c>
+      <c r="N24">
+        <v>2.38</v>
+      </c>
+      <c r="O24">
+        <v>1.09</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>1.48</v>
+      </c>
+      <c r="R24">
+        <v>2.5</v>
+      </c>
+      <c r="S24">
+        <v>2.4</v>
+      </c>
+      <c r="T24">
+        <v>1.53</v>
+      </c>
+      <c r="U24">
+        <v>2.1</v>
+      </c>
+      <c r="V24">
+        <v>1.67</v>
+      </c>
+      <c r="W24">
+        <v>1.38</v>
+      </c>
+      <c r="X24">
+        <v>1.38</v>
+      </c>
+      <c r="Y24">
+        <v>1.55</v>
+      </c>
+      <c r="Z24">
+        <v>1.33</v>
+      </c>
+      <c r="AA24">
+        <v>1.33</v>
+      </c>
+      <c r="AB24">
+        <v>1.39</v>
+      </c>
+      <c r="AC24">
+        <v>1.32</v>
+      </c>
+      <c r="AD24">
+        <v>2.71</v>
+      </c>
+      <c r="AE24">
+        <v>1.84</v>
+      </c>
+      <c r="AF24">
+        <v>8.25</v>
+      </c>
+      <c r="AG24">
+        <v>2.41</v>
+      </c>
+      <c r="AH24">
+        <v>1.32</v>
+      </c>
+      <c r="AI24">
+        <v>3.08</v>
+      </c>
+      <c r="AJ24">
+        <v>1.57</v>
+      </c>
+      <c r="AK24">
+        <v>2.25</v>
+      </c>
+      <c r="AL24">
+        <v>1.97</v>
+      </c>
+      <c r="AM24">
+        <v>1.78</v>
+      </c>
+      <c r="AN24">
+        <v>2.5</v>
+      </c>
+      <c r="AO24">
+        <v>1.48</v>
+      </c>
+      <c r="AP24">
+        <v>3.38</v>
+      </c>
+      <c r="AQ24">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45398</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25">
+        <v>6.5</v>
+      </c>
+      <c r="H25">
+        <v>2.05</v>
+      </c>
+      <c r="I25">
+        <v>2.3</v>
+      </c>
+      <c r="J25">
+        <v>4.27</v>
+      </c>
+      <c r="K25">
+        <v>3.04</v>
+      </c>
+      <c r="L25">
+        <v>1.59</v>
+      </c>
+      <c r="M25">
+        <v>1.5</v>
+      </c>
+      <c r="N25">
+        <v>2.5</v>
+      </c>
+      <c r="O25">
+        <v>1.07</v>
+      </c>
+      <c r="P25">
+        <v>7.5</v>
+      </c>
+      <c r="Q25">
+        <v>1.4</v>
+      </c>
+      <c r="R25">
+        <v>2.85</v>
+      </c>
+      <c r="S25">
+        <v>2.2</v>
+      </c>
+      <c r="T25">
+        <v>1.64</v>
+      </c>
+      <c r="U25">
+        <v>2.2</v>
+      </c>
+      <c r="V25">
+        <v>1.62</v>
+      </c>
+      <c r="W25">
+        <v>2.2</v>
+      </c>
+      <c r="X25">
+        <v>1.22</v>
+      </c>
+      <c r="Y25">
+        <v>1.1</v>
+      </c>
+      <c r="Z25">
+        <v>0.5</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1.2</v>
+      </c>
+      <c r="AC25">
+        <v>1.15</v>
+      </c>
+      <c r="AD25">
+        <v>2.35</v>
+      </c>
+      <c r="AE25">
+        <v>3</v>
+      </c>
+      <c r="AF25">
+        <v>8.5</v>
+      </c>
+      <c r="AG25">
+        <v>1.53</v>
+      </c>
+      <c r="AH25">
+        <v>1.29</v>
+      </c>
+      <c r="AI25">
+        <v>3.3</v>
+      </c>
+      <c r="AJ25">
+        <v>1.48</v>
+      </c>
+      <c r="AK25">
+        <v>2.47</v>
+      </c>
+      <c r="AL25">
+        <v>1.8</v>
+      </c>
+      <c r="AM25">
+        <v>1.9</v>
+      </c>
+      <c r="AN25">
+        <v>2.37</v>
+      </c>
+      <c r="AO25">
+        <v>1.51</v>
+      </c>
+      <c r="AP25">
+        <v>3.3</v>
+      </c>
+      <c r="AQ25">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45398</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24">
-        <v>3.1</v>
-      </c>
-      <c r="H24">
-        <v>2.1</v>
-      </c>
-      <c r="I24">
-        <v>3.6</v>
-      </c>
-      <c r="J24">
-        <v>3.57</v>
-      </c>
-      <c r="K24">
-        <v>4.36</v>
-      </c>
-      <c r="L24">
-        <v>1.67</v>
-      </c>
-      <c r="M24">
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26">
+        <v>2.88</v>
+      </c>
+      <c r="H26">
+        <v>2.2</v>
+      </c>
+      <c r="I26">
+        <v>3.75</v>
+      </c>
+      <c r="J26">
+        <v>2.25</v>
+      </c>
+      <c r="K26">
+        <v>3.25</v>
+      </c>
+      <c r="L26">
+        <v>2.91</v>
+      </c>
+      <c r="M26">
         <v>1.42</v>
       </c>
-      <c r="N24">
+      <c r="N26">
         <v>2.65</v>
       </c>
-      <c r="O24">
+      <c r="O26">
         <v>1.05</v>
       </c>
-      <c r="P24">
+      <c r="P26">
         <v>9.9</v>
       </c>
-      <c r="Q24">
+      <c r="Q26">
         <v>1.34</v>
       </c>
-      <c r="R24">
+      <c r="R26">
         <v>3.44</v>
       </c>
-      <c r="S24">
-        <v>2.05</v>
-      </c>
-      <c r="T24">
-        <v>1.63</v>
-      </c>
-      <c r="U24">
-        <v>1.8</v>
-      </c>
-      <c r="V24">
+      <c r="S26">
+        <v>2.01</v>
+      </c>
+      <c r="T26">
+        <v>1.83</v>
+      </c>
+      <c r="U26">
+        <v>1.75</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>1.3</v>
+      </c>
+      <c r="X26">
+        <v>1.35</v>
+      </c>
+      <c r="Y26">
+        <v>1.7</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1.62</v>
+      </c>
+      <c r="AF26">
+        <v>9.5</v>
+      </c>
+      <c r="AG26">
+        <v>2.88</v>
+      </c>
+      <c r="AH26">
+        <v>1.17</v>
+      </c>
+      <c r="AI26">
+        <v>4.4</v>
+      </c>
+      <c r="AJ26">
+        <v>1.34</v>
+      </c>
+      <c r="AK26">
+        <v>3</v>
+      </c>
+      <c r="AL26">
+        <v>2.25</v>
+      </c>
+      <c r="AM26">
+        <v>2.25</v>
+      </c>
+      <c r="AN26">
         <v>1.95</v>
       </c>
-      <c r="W24">
-        <v>1.3</v>
-      </c>
-      <c r="X24">
-        <v>1.35</v>
-      </c>
-      <c r="Y24">
-        <v>1.7</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>1.62</v>
-      </c>
-      <c r="AF24">
-        <v>8.1</v>
-      </c>
-      <c r="AG24">
-        <v>2.86</v>
-      </c>
-      <c r="AH24">
-        <v>1.17</v>
-      </c>
-      <c r="AI24">
-        <v>4.4</v>
-      </c>
-      <c r="AJ24">
-        <v>1.34</v>
-      </c>
-      <c r="AK24">
-        <v>3</v>
-      </c>
-      <c r="AL24">
-        <v>2.25</v>
-      </c>
-      <c r="AM24">
-        <v>2.25</v>
-      </c>
-      <c r="AN24">
-        <v>1.95</v>
-      </c>
-      <c r="AO24">
+      <c r="AO26">
         <v>1.77</v>
       </c>
-      <c r="AP24">
+      <c r="AP26">
         <v>2.4</v>
       </c>
-      <c r="AQ24">
+      <c r="AQ26">
         <v>1.5</v>
       </c>
     </row>
